--- a/Mueller Industries.xlsx
+++ b/Mueller Industries.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MCKJAM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A228B191-84A2-4837-B4FC-D767B4CB9A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8806D2-B857-4C90-ADE9-7DE0F674AAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="15810" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="DCF" sheetId="2" r:id="rId2"/>
-    <sheet name="DDM" sheetId="3" r:id="rId3"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Ticker</t>
   </si>
@@ -113,6 +112,15 @@
   </si>
   <si>
     <t>2027E</t>
+  </si>
+  <si>
+    <t>Gain on Extinguishment</t>
+  </si>
+  <si>
+    <t>Environmental Expense</t>
+  </si>
+  <si>
+    <t>Pension Plan Termination Expense</t>
   </si>
 </sst>
 </file>
@@ -186,14 +194,14 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -479,17 +487,17 @@
   <dimension ref="B2:C8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="2" width="8.7109375" style="1"/>
+    <col min="3" max="3" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,15 +505,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>101.45</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+        <v>100.7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -513,16 +521,16 @@
         <v>110700752</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4">
         <f>C4*C3</f>
-        <v>11230591290.4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+        <v>11147565726.4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -531,7 +539,7 @@
         <v>2214134000</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -540,13 +548,13 @@
         <v>546819000</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="4">
         <f>C5+C7-C6</f>
-        <v>9563276290.3999996</v>
+        <v>9480250726.3999996</v>
       </c>
     </row>
   </sheetData>
@@ -557,22 +565,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC11E875-6741-4A07-933A-26EBFEEBDD71}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="5"/>
-    <col min="2" max="2" width="28.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="9"/>
-    <col min="7" max="16384" width="8.7265625" style="5"/>
+    <col min="1" max="1" width="8.7109375" style="5"/>
+    <col min="2" max="2" width="35.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="9"/>
+    <col min="7" max="16384" width="8.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -580,7 +588,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="5">
         <v>2022</v>
       </c>
@@ -600,7 +608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -614,7 +622,7 @@
         <v>3768766</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
@@ -628,7 +636,7 @@
         <v>2724328</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
@@ -642,7 +650,7 @@
         <v>53133</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
@@ -656,7 +664,7 @@
         <v>226696</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -670,7 +678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
@@ -684,7 +692,7 @@
         <v>-5780</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
@@ -698,7 +706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
@@ -712,7 +720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
@@ -729,7 +737,7 @@
         <v>2998377</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
@@ -746,37 +754,41 @@
         <v>770389</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="C11:E11" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0416D8C3-EBCC-443B-A8DF-37CE9AF91459}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Mueller Industries.xlsx
+++ b/Mueller Industries.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MCKJAM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8806D2-B857-4C90-ADE9-7DE0F674AAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D92528-10FD-4C6B-B0B8-CB732449195A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6108" yWindow="3744" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Ticker</t>
   </si>
@@ -78,49 +79,85 @@
     <t>SG&amp;A</t>
   </si>
   <si>
-    <t>Gain On Sale Of Business</t>
-  </si>
-  <si>
     <t>Gain On Sale Of Assets</t>
   </si>
   <si>
-    <t>Impairment Charges</t>
-  </si>
-  <si>
-    <t>Gain On Insurance Settlement</t>
-  </si>
-  <si>
-    <t>Total Expenses</t>
-  </si>
-  <si>
     <t>Operating Income</t>
   </si>
   <si>
     <t>Interest Income</t>
   </si>
   <si>
-    <t>Interest Expsense</t>
-  </si>
-  <si>
-    <t>Realized &amp; Unrealized On STI</t>
-  </si>
-  <si>
-    <t>2025E</t>
-  </si>
-  <si>
-    <t>2026E</t>
-  </si>
-  <si>
-    <t>2027E</t>
-  </si>
-  <si>
-    <t>Gain on Extinguishment</t>
-  </si>
-  <si>
-    <t>Environmental Expense</t>
-  </si>
-  <si>
     <t>Pension Plan Termination Expense</t>
+  </si>
+  <si>
+    <t>*YEARLY DCF</t>
+  </si>
+  <si>
+    <t>*Exposure to property markets</t>
+  </si>
+  <si>
+    <t>Gain On Sale Of Businesses</t>
+  </si>
+  <si>
+    <t>Impairment</t>
+  </si>
+  <si>
+    <t>Gain On Insurance Settlements</t>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+  </si>
+  <si>
+    <t>STI Gains</t>
+  </si>
+  <si>
+    <t>Gain On Extinguishment Of Liability</t>
+  </si>
+  <si>
+    <t>Redemption Premium</t>
+  </si>
+  <si>
+    <t>Environmental Expsense</t>
+  </si>
+  <si>
+    <t>Other Income</t>
+  </si>
+  <si>
+    <t>Income Before Taxes</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Income From Unconsolidated Affiliates</t>
+  </si>
+  <si>
+    <t>Consolidated Net Income</t>
+  </si>
+  <si>
+    <t>Income Attributable To Non-Controlling Interests</t>
+  </si>
+  <si>
+    <t>Income Attributable To Mueller Industries</t>
+  </si>
+  <si>
+    <t>Basic EPS</t>
+  </si>
+  <si>
+    <t>Diluted EPS</t>
+  </si>
+  <si>
+    <t>Divended Per Share</t>
+  </si>
+  <si>
+    <t>Basic Shares</t>
+  </si>
+  <si>
+    <t>Diluted Shares</t>
+  </si>
+  <si>
+    <t>Dilution Of Shares Due To Compensation</t>
   </si>
 </sst>
 </file>
@@ -165,18 +202,9 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -186,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -197,13 +225,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,28 +505,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C8"/>
+  <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F3" sqref="F3:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" style="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="2" width="8.6640625" style="1"/>
+    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -513,7 +537,7 @@
         <v>100.7</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -521,7 +545,7 @@
         <v>110700752</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -530,7 +554,7 @@
         <v>11147565726.4</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -539,7 +563,7 @@
         <v>2214134000</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -548,7 +572,7 @@
         <v>546819000</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -565,230 +589,179 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC11E875-6741-4A07-933A-26EBFEEBDD71}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="5"/>
-    <col min="2" max="2" width="35.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="9"/>
-    <col min="7" max="16384" width="8.7109375" style="5"/>
+    <col min="1" max="1" width="8.6640625" style="5"/>
+    <col min="2" max="2" width="46.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C2" s="5">
-        <v>2022</v>
-      </c>
-      <c r="D2" s="5">
-        <v>2023</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="D1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="5">
         <v>2024</v>
       </c>
-      <c r="F2" s="10" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="8" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="8" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>3982455</v>
-      </c>
-      <c r="D3" s="4">
-        <v>3420345</v>
-      </c>
-      <c r="E3" s="4">
-        <v>3768766</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2864862</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2433511</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2724328</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4">
-        <v>43731</v>
-      </c>
-      <c r="D5" s="4">
-        <v>39954</v>
-      </c>
-      <c r="E5" s="4">
-        <v>53133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4">
-        <v>203086</v>
-      </c>
-      <c r="D6" s="4">
-        <v>208172</v>
-      </c>
-      <c r="E6" s="4">
-        <v>226696</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>-4137</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4">
-        <v>-6373</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>-5780</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>6258</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>-19466</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="4">
-        <f t="shared" ref="C11:D11" si="0">SUM(C4:C10)</f>
-        <v>3105306</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>2664292</v>
-      </c>
-      <c r="E11" s="4">
-        <f>SUM(E4:E10)</f>
-        <v>2998377</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="4">
-        <f t="shared" ref="C12:D12" si="1">C3-C11</f>
-        <v>877149</v>
-      </c>
-      <c r="D12" s="4">
-        <f t="shared" si="1"/>
-        <v>756053</v>
-      </c>
-      <c r="E12" s="4">
-        <f>E3-E11</f>
-        <v>770389</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="C11:E11" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>